--- a/result_excel/employee_corr_matrix.xlsx
+++ b/result_excel/employee_corr_matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB28"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2407 +436,1865 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>gb</t>
+          <t>months_at_job_woe</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>months_with_bank_woe</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>age_woe</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>employment_segment_woe</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>marital_status_woe</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>client_type_woe</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>bki_rating_woe</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>months_at_job_woe</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>bki_number_of_loans_woe</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>loan_amount_woe</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>salary_payment_in_bank_account_woe</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>months_at_current_address_woe</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>education_woe</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>region_of_registration_woe</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>eskhata_online_woe</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>dependants_woe</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>gender_woe</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>city_of_living_eq_registration_woe</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>property_object_woe</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>net_main_income_woe</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>source_of_main_income_woe</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>plastic_cards_woe</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>previous_loans_count_woe</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>education_woe</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>salary_payment_in_bank_account_woe</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>source_of_main_income_woe</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>city_of_living_eq_registration_woe</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>bki_number_of_loans_woe</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>loan_amount_woe</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>age_woe</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>months_with_bank_woe</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>gender_woe</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>additional_income_woe</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>eskhata_online_woe</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>dependants_woe</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>employment_segment_woe</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>net_main_income_woe</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>client_type_woe</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>property_object_woe</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>region_of_registration_woe</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>plastic_cards_woe</t>
-        </is>
-      </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>marital_status_woe</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
           <t>reported_expenses_woe</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>deposit_woe</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>months_at_current_address_woe</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>max_max_days_past_due_woe</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gb</t>
+          <t>months_at_job_woe</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04343639991875824</v>
+        <v>0.2409145398872242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07428817067403214</v>
+        <v>0.5017351084079253</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01882590399068473</v>
+        <v>0.2750093056731251</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03645585684832248</v>
+        <v>0.2607304405426203</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03720833658379039</v>
+        <v>0.2137533177984056</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0176775671835874</v>
+        <v>0.01126949131641902</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03053079517447667</v>
+        <v>0.1475101711414129</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05026509381453062</v>
+        <v>-0.06084722433404742</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04281478372203207</v>
+        <v>0.02032221787014409</v>
       </c>
       <c r="L2" t="n">
-        <v>0.07824893721253696</v>
+        <v>0.1979023025716991</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08199825476844767</v>
+        <v>0.1790827316302051</v>
       </c>
       <c r="N2" t="n">
-        <v>0.03075360884758935</v>
+        <v>0.08067876178316775</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01233998927218793</v>
+        <v>-0.02896168514189792</v>
       </c>
       <c r="P2" t="n">
-        <v>0.03098240734028416</v>
+        <v>0.05869780539262414</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.03021730051459642</v>
+        <v>0.06434194483038047</v>
       </c>
       <c r="R2" t="n">
-        <v>0.07368507566888031</v>
+        <v>0.07545319291088061</v>
       </c>
       <c r="S2" t="n">
-        <v>0.02845169687237388</v>
+        <v>0.0974148236452077</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0638301905747298</v>
+        <v>0.04988737422524905</v>
       </c>
       <c r="U2" t="n">
-        <v>0.02567389987213146</v>
+        <v>0.02988470132492452</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0422357697665559</v>
+        <v>-0.02882962463373014</v>
       </c>
       <c r="W2" t="n">
-        <v>0.02141177634535238</v>
+        <v>0.01253442861688374</v>
       </c>
       <c r="X2" t="n">
-        <v>0.06543798290569863</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.02063710294158352</v>
-      </c>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="n">
-        <v>0.04494916122188742</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.02419700518822549</v>
+        <v>0.02524862878182814</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>bki_rating_woe</t>
+          <t>months_with_bank_woe</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.04343639991875824</v>
+        <v>0.2409145398872242</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05979146855847192</v>
+        <v>0.2358812256273239</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03783997466790952</v>
+        <v>0.1347145903965581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01534029697946743</v>
+        <v>0.1467024886472888</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0007607760426785254</v>
+        <v>0.5203034013075879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009402984467854977</v>
+        <v>-0.01644573406122338</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01650563973305895</v>
+        <v>0.2692070290321242</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3268827181986747</v>
+        <v>-0.07864945312629705</v>
       </c>
       <c r="K3" t="n">
-        <v>0.03361675380810542</v>
+        <v>0.2613143739715614</v>
       </c>
       <c r="L3" t="n">
-        <v>0.06827579401820796</v>
+        <v>0.2498356254339757</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03773976518825866</v>
+        <v>0.1131695787253373</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01004362459454277</v>
+        <v>0.1674606704203833</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.01651105649062412</v>
+        <v>0.2546785057618983</v>
       </c>
       <c r="P3" t="n">
-        <v>0.002107369090701727</v>
+        <v>0.09042783829346404</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.002786778513992534</v>
+        <v>0.002354491357786798</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0467196319642779</v>
+        <v>0.09928614873200578</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01499515621677161</v>
+        <v>0.03263192031875568</v>
       </c>
       <c r="T3" t="n">
-        <v>0.08227910237674531</v>
+        <v>0.004138058264365016</v>
       </c>
       <c r="U3" t="n">
-        <v>0.02939651969492608</v>
+        <v>0.009233685348056337</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03312771575938338</v>
+        <v>0.1749658206164342</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01031646921739273</v>
+        <v>0.07518182742309246</v>
       </c>
       <c r="X3" t="n">
-        <v>0.0407425508535815</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.0001133452187756794</v>
-      </c>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="n">
-        <v>0.03294618978688882</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.01457235543110716</v>
+        <v>0.02756165220351701</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>months_at_job_woe</t>
+          <t>age_woe</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07428817067403214</v>
+        <v>0.5017351084079253</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05979146855847192</v>
+        <v>0.2358812256273239</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01132181915537337</v>
+        <v>0.1335113247510626</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1692444643571456</v>
+        <v>0.3967248675992811</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01473721211836417</v>
+        <v>0.1982084267381099</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03852997387626962</v>
+        <v>0.01653382787359968</v>
       </c>
       <c r="I4" t="n">
-        <v>0.07844688404739698</v>
+        <v>0.1535732625635436</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1464702273122176</v>
+        <v>-0.05545581765670499</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.06089494315258991</v>
+        <v>-0.002782380274337927</v>
       </c>
       <c r="L4" t="n">
-        <v>0.498891311968993</v>
+        <v>0.2049947571511726</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2374157090534642</v>
+        <v>0.1265530893530451</v>
       </c>
       <c r="N4" t="n">
-        <v>0.06266051894176151</v>
+        <v>0.05867898218570094</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.009433689797005399</v>
+        <v>-0.06727283863321831</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.02880450779858777</v>
+        <v>0.08501285672573078</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.05751946839423675</v>
+        <v>0.06888048812324261</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2688413969377148</v>
+        <v>0.04323947840245021</v>
       </c>
       <c r="S4" t="n">
-        <v>0.04750936225234557</v>
+        <v>0.05579441621068818</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2117678904861297</v>
+        <v>0.05306853748574193</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09798517701182741</v>
+        <v>0.01720984787354333</v>
       </c>
       <c r="V4" t="n">
-        <v>0.08515942255459191</v>
+        <v>-0.05460501711014021</v>
       </c>
       <c r="W4" t="n">
-        <v>-0.02964185962065269</v>
+        <v>0.001966391548841579</v>
       </c>
       <c r="X4" t="n">
-        <v>0.2267082469781341</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0.02067739402200331</v>
-      </c>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="n">
-        <v>0.1954633997697022</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0.01635989890640272</v>
+        <v>0.02282500226847466</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>previous_loans_count_woe</t>
+          <t>employment_segment_woe</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01882590399068473</v>
+        <v>0.2750093056731251</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03783997466790952</v>
+        <v>0.1347145903965581</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01132181915537337</v>
+        <v>0.1335113247510626</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.005057855768206479</v>
+        <v>0.1853750600396579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.115894070231179</v>
+        <v>0.1298624570319279</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.008876334142357979</v>
+        <v>0.02434007412451917</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01899907129635148</v>
+        <v>0.08479397995259254</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1675613006463622</v>
+        <v>0.02893958958631213</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.01163562214094854</v>
+        <v>0.07638975868062696</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001999788228898731</v>
+        <v>0.1178062973935293</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07546117261563287</v>
+        <v>0.2044946916123343</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.004628036202073487</v>
+        <v>0.1188394203581676</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01938605431589129</v>
+        <v>-0.01383249820329345</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2459407308043128</v>
+        <v>0.01208113072356448</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.005697929770710371</v>
+        <v>0.2362841731169237</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0143433756994679</v>
+        <v>0.1272566569486929</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.02239929493876311</v>
+        <v>0.1397048351020813</v>
       </c>
       <c r="T5" t="n">
-        <v>0.3939511860270611</v>
+        <v>0.1833564197677696</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.001864251649357563</v>
+        <v>0.07866078660484259</v>
       </c>
       <c r="V5" t="n">
-        <v>0.04693099271125591</v>
+        <v>0.01162957455033877</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1897028615112557</v>
+        <v>0.01382196600026271</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.002449733388135817</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.02206802672643453</v>
-      </c>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="n">
-        <v>0.05956748100742761</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>-0.4764488981504412</v>
+        <v>0.03082008803714354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>education_woe</t>
+          <t>marital_status_woe</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03645585684832248</v>
+        <v>0.2607304405426203</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01534029697946743</v>
+        <v>0.1467024886472888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1692444643571456</v>
+        <v>0.3967248675992811</v>
       </c>
       <c r="E6" t="n">
-        <v>0.005057855768206479</v>
+        <v>0.1853750600396579</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04585068748909826</v>
+        <v>0.1069405026310531</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07247619257455004</v>
+        <v>0.02513910257305656</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.1019198509033401</v>
+        <v>0.08465320251539252</v>
       </c>
       <c r="J6" t="n">
-        <v>0.06471209228094935</v>
+        <v>0.00579331679656942</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.1281344984314941</v>
+        <v>0.03977743841937372</v>
       </c>
       <c r="L6" t="n">
-        <v>0.08613310413589989</v>
+        <v>0.1394161853819114</v>
       </c>
       <c r="M6" t="n">
-        <v>0.08753674885708243</v>
+        <v>0.06997351485413113</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03533195631815394</v>
+        <v>0.1758506131991023</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0112791072876017</v>
+        <v>-0.03547746629097435</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02876876233265852</v>
+        <v>0.1091877215701093</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01225361413342481</v>
+        <v>0.3257750763507299</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2456601705627196</v>
+        <v>0.1446715749725218</v>
       </c>
       <c r="S6" t="n">
-        <v>0.006089710098130476</v>
+        <v>0.09368975680543214</v>
       </c>
       <c r="T6" t="n">
-        <v>0.06145362847005587</v>
+        <v>0.07005368285586543</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.03215679569478287</v>
+        <v>0.02407914831677646</v>
       </c>
       <c r="V6" t="n">
-        <v>-0.1050436245989451</v>
+        <v>-0.00383734265520128</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001745125863177045</v>
+        <v>0.008379503858700879</v>
       </c>
       <c r="X6" t="n">
-        <v>0.04423935206838196</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.02315650911658775</v>
-      </c>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="n">
-        <v>0.006176639017541308</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>0.01307397757971307</v>
+        <v>0.01539414213407016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>salary_payment_in_bank_account_woe</t>
+          <t>client_type_woe</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03720833658379039</v>
+        <v>0.2137533177984056</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.0007607760426785254</v>
+        <v>0.5203034013075879</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01473721211836417</v>
+        <v>0.1982084267381099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.115894070231179</v>
+        <v>0.1298624570319279</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04585068748909826</v>
+        <v>0.1069405026310531</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03522807903869465</v>
+        <v>0.09521546211181894</v>
       </c>
       <c r="I7" t="n">
-        <v>0.08403352029024645</v>
+        <v>0.3913111664814961</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08139652594076568</v>
+        <v>-0.08653969607447208</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.02990893057691234</v>
+        <v>0.1325614977879864</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.002801361739195947</v>
+        <v>0.2717000180173106</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2648515080956654</v>
+        <v>0.08885657030419389</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.04113896654495863</v>
+        <v>0.1137777410617338</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04514357965529114</v>
+        <v>0.270839131118772</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2647331142663276</v>
+        <v>0.0712043320739348</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.06550257194866173</v>
+        <v>-0.00114864190461374</v>
       </c>
       <c r="R7" t="n">
-        <v>0.07115160849667662</v>
+        <v>0.05490217142022678</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.02024005480257876</v>
+        <v>0.02863775189769611</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1325910236158928</v>
+        <v>0.006134577832614261</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0102575974494711</v>
+        <v>0.004299617749404632</v>
       </c>
       <c r="V7" t="n">
-        <v>0.1283256493331783</v>
+        <v>0.1788029431403374</v>
       </c>
       <c r="W7" t="n">
-        <v>0.4099084603445771</v>
+        <v>0.394008124233808</v>
       </c>
       <c r="X7" t="n">
-        <v>0.04761178940549133</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.02131317821719172</v>
-      </c>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="n">
-        <v>0.05257500678206572</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>-0.01825286282574718</v>
+        <v>0.01701201571612366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>source_of_main_income_woe</t>
+          <t>bki_rating_woe</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0176775671835874</v>
+        <v>0.01126949131641902</v>
       </c>
       <c r="C8" t="n">
-        <v>0.009402984467854977</v>
+        <v>-0.01644573406122338</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03852997387626962</v>
+        <v>0.01653382787359968</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.008876334142357979</v>
+        <v>0.02434007412451917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07247619257455004</v>
+        <v>0.02513910257305656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03522807903869465</v>
+        <v>0.09521546211181894</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.02958399451410318</v>
+        <v>0.4620850606170877</v>
       </c>
       <c r="J8" t="n">
-        <v>0.004823635565796373</v>
+        <v>0.07294621773436707</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.03021203221865603</v>
+        <v>0.003778607119485888</v>
       </c>
       <c r="L8" t="n">
-        <v>0.02522591923550534</v>
+        <v>0.005756825241690448</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007870354554645706</v>
+        <v>-0.006489548050716679</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01730670988210769</v>
+        <v>0.01645538664679273</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.01872649873167397</v>
+        <v>0.02180548169645317</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.006330130570039983</v>
+        <v>-0.002894690190423062</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.0005859681371646212</v>
+        <v>0.009522569914458092</v>
       </c>
       <c r="R8" t="n">
-        <v>0.06765279684923907</v>
+        <v>0.007769350351439662</v>
       </c>
       <c r="S8" t="n">
-        <v>0.04470075916090735</v>
+        <v>0.01338331483871978</v>
       </c>
       <c r="T8" t="n">
-        <v>0.001997271759683673</v>
+        <v>-0.008151299155224168</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01237453889972808</v>
+        <v>0.01209964328355993</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.02943262929110217</v>
+        <v>0.02582192897516669</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01187067530982624</v>
+        <v>0.09984566550247491</v>
       </c>
       <c r="X8" t="n">
-        <v>0.01157368674026274</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0.01411010774517813</v>
-      </c>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="n">
-        <v>-0.001540296661021496</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>0.01851553092770452</v>
+        <v>-0.0148227810784026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>city_of_living_eq_registration_woe</t>
+          <t>bki_number_of_loans_woe</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03053079517447667</v>
+        <v>0.1475101711414129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01650563973305895</v>
+        <v>0.2692070290321242</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07844688404739698</v>
+        <v>0.1535732625635436</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01899907129635148</v>
+        <v>0.08479397995259254</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1019198509033401</v>
+        <v>0.08465320251539252</v>
       </c>
       <c r="G9" t="n">
-        <v>0.08403352029024645</v>
+        <v>0.3913111664814961</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.02958399451410318</v>
+        <v>0.4620850606170877</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.006644221207069284</v>
+        <v>-0.04934198786624777</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1618082853992925</v>
+        <v>0.08142445726608714</v>
       </c>
       <c r="L9" t="n">
-        <v>0.04325648345271355</v>
+        <v>0.152055200600833</v>
       </c>
       <c r="M9" t="n">
-        <v>0.101339585484266</v>
+        <v>0.08477025279664677</v>
       </c>
       <c r="N9" t="n">
-        <v>0.04783648095510312</v>
+        <v>0.03524609957204317</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01889613915067067</v>
+        <v>0.138024471345026</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.05621029105258896</v>
+        <v>0.04015872530045726</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1478496355213665</v>
+        <v>-0.005730211452916504</v>
       </c>
       <c r="R9" t="n">
-        <v>0.113203750140209</v>
+        <v>0.006648461001077949</v>
       </c>
       <c r="S9" t="n">
-        <v>0.05911938009842863</v>
+        <v>-0.003581731995348674</v>
       </c>
       <c r="T9" t="n">
-        <v>0.05486331873484666</v>
+        <v>-0.01618886545159365</v>
       </c>
       <c r="U9" t="n">
-        <v>0.2418554661313762</v>
+        <v>0.005222807838315497</v>
       </c>
       <c r="V9" t="n">
-        <v>0.5354089093788313</v>
+        <v>0.1042140048489635</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02488780383030137</v>
+        <v>0.1676661471307086</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1382609088725751</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0.004704081406297921</v>
-      </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="n">
-        <v>0.1443607997640468</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-0.01455168578972382</v>
+        <v>0.01512626141781773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>bki_number_of_loans_woe</t>
+          <t>loan_amount_woe</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05026509381453062</v>
+        <v>-0.06084722433404742</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3268827181986747</v>
+        <v>-0.07864945312629705</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1464702273122176</v>
+        <v>-0.05545581765670499</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1675613006463622</v>
+        <v>0.02893958958631213</v>
       </c>
       <c r="F10" t="n">
-        <v>0.06471209228094935</v>
+        <v>0.00579331679656942</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08139652594076568</v>
+        <v>-0.08653969607447208</v>
       </c>
       <c r="H10" t="n">
-        <v>0.004823635565796373</v>
+        <v>0.07294621773436707</v>
       </c>
       <c r="I10" t="n">
-        <v>0.006644221207069284</v>
+        <v>-0.04934198786624777</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.04928689245276081</v>
+        <v>-0.02985859041291178</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1535637188301259</v>
+        <v>0.007991388568471168</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2681401885402331</v>
+        <v>-0.1372227136158915</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.005690541665928445</v>
+        <v>0.1408975751771124</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005978134534728906</v>
+        <v>-0.08073769466252909</v>
       </c>
       <c r="P10" t="n">
-        <v>0.1379311210763631</v>
+        <v>0.006724220746150244</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.04014540372327682</v>
+        <v>0.08322213074493209</v>
       </c>
       <c r="R10" t="n">
-        <v>0.08698281088189916</v>
+        <v>0.1617455828635024</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.01283588876884923</v>
+        <v>0.05780127441389867</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3912445501752563</v>
+        <v>0.05997464280823232</v>
       </c>
       <c r="U10" t="n">
-        <v>-0.002938868599359162</v>
+        <v>0.003284870355528387</v>
       </c>
       <c r="V10" t="n">
-        <v>0.03523161947283278</v>
+        <v>-0.05314694805376186</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1041270745938564</v>
+        <v>-0.01179448831927833</v>
       </c>
       <c r="X10" t="n">
-        <v>0.06383906902289728</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.02776364056234969</v>
-      </c>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="n">
-        <v>0.1520033141077183</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>-0.07772741889000223</v>
+        <v>-0.01937541373070231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>loan_amount_woe</t>
+          <t>salary_payment_in_bank_account_woe</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04281478372203207</v>
+        <v>0.02032221787014409</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03361675380810542</v>
+        <v>0.2613143739715614</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.06089494315258991</v>
+        <v>-0.002782380274337927</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01163562214094854</v>
+        <v>0.07638975868062696</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1281344984314941</v>
+        <v>0.03977743841937372</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.02990893057691234</v>
+        <v>0.1325614977879864</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.03021203221865603</v>
+        <v>0.003778607119485888</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1618082853992925</v>
+        <v>0.08142445726608714</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.04928689245276081</v>
+        <v>-0.02985859041291178</v>
       </c>
       <c r="K11" t="n">
         <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.05548705978454357</v>
+        <v>0.05253408374634665</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.07878384838488936</v>
+        <v>0.0641781966250605</v>
       </c>
       <c r="N11" t="n">
-        <v>0.08317080825833249</v>
+        <v>0.1282985321663271</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.003589140757204777</v>
+        <v>0.2646783016663864</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.08066787848580988</v>
+        <v>0.0654938111534048</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.006738817225918428</v>
+        <v>-0.04110867458509793</v>
       </c>
       <c r="R11" t="n">
-        <v>0.02282222343286654</v>
+        <v>0.08401212330948329</v>
       </c>
       <c r="S11" t="n">
-        <v>0.06354991129387645</v>
+        <v>0.01093133339377495</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.08649082002591205</v>
+        <v>0.001603165846340073</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0570158760728731</v>
+        <v>0.03118392735617154</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1409725573246835</v>
+        <v>0.4098305033775229</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.05305478398613655</v>
+        <v>0.1158097098655609</v>
       </c>
       <c r="X11" t="n">
-        <v>-0.01089557362882587</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.0123704165355317</v>
-      </c>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="n">
-        <v>0.008084365466713393</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>-0.02102502845531048</v>
+        <v>0.01116117892909676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>age_woe</t>
+          <t>months_at_current_address_woe</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07824893721253696</v>
+        <v>0.1979023025716991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06827579401820796</v>
+        <v>0.2498356254339757</v>
       </c>
       <c r="D12" t="n">
-        <v>0.498891311968993</v>
+        <v>0.2049947571511726</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001999788228898731</v>
+        <v>0.1178062973935293</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08613310413589989</v>
+        <v>0.1394161853819114</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.002801361739195947</v>
+        <v>0.2717000180173106</v>
       </c>
       <c r="H12" t="n">
-        <v>0.02522591923550534</v>
+        <v>0.005756825241690448</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04325648345271355</v>
+        <v>0.152055200600833</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1535637188301259</v>
+        <v>0.007991388568471168</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.05548705978454357</v>
+        <v>0.05253408374634665</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2380884369650247</v>
+        <v>0.03198509733860662</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06887832403208659</v>
+        <v>0.1713095803107567</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.01990938120179429</v>
+        <v>0.03834360555208705</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.06726718196534434</v>
+        <v>0.1095195880805692</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.08498160304887192</v>
+        <v>0.03850426428154445</v>
       </c>
       <c r="R12" t="n">
-        <v>0.129234981978036</v>
+        <v>0.1444061207913455</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05301223095133712</v>
+        <v>0.115051123436634</v>
       </c>
       <c r="T12" t="n">
-        <v>0.1982247905355151</v>
+        <v>0.04375234478988829</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05740582105260188</v>
+        <v>0.0009406837670067736</v>
       </c>
       <c r="V12" t="n">
-        <v>0.05869599682002259</v>
+        <v>0.04060410910715576</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.05459270264445927</v>
+        <v>0.05974773747603969</v>
       </c>
       <c r="X12" t="n">
-        <v>0.3355526772742019</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0.02232838321414371</v>
-      </c>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="n">
-        <v>0.2050132724529852</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>0.0208023646533256</v>
+        <v>0.009761780997373366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>months_with_bank_woe</t>
+          <t>education_woe</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08199825476844767</v>
+        <v>0.1790827316302051</v>
       </c>
       <c r="C13" t="n">
-        <v>0.03773976518825866</v>
+        <v>0.1131695787253373</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2374157090534642</v>
+        <v>0.1265530893530451</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07546117261563287</v>
+        <v>0.2044946916123343</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08753674885708243</v>
+        <v>0.06997351485413113</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2648515080956654</v>
+        <v>0.08885657030419389</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007870354554645706</v>
+        <v>-0.006489548050716679</v>
       </c>
       <c r="I13" t="n">
-        <v>0.101339585484266</v>
+        <v>0.08477025279664677</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2681401885402331</v>
+        <v>-0.1372227136158915</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.07878384838488936</v>
+        <v>0.0641781966250605</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2380884369650247</v>
+        <v>0.03198509733860662</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002885562811710425</v>
+        <v>-0.05890332855379068</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0340732164731057</v>
+        <v>0.06599882388305793</v>
       </c>
       <c r="P13" t="n">
-        <v>0.253457311733698</v>
+        <v>0.03297292493975074</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.09106456319297318</v>
+        <v>-0.05428584488569616</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1354501359811287</v>
+        <v>-0.074409628326729</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0004676416974161886</v>
+        <v>-0.01793328067907718</v>
       </c>
       <c r="T13" t="n">
-        <v>0.5174399799087578</v>
+        <v>-0.002194572036746614</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0345962746319728</v>
+        <v>0.04688601214404813</v>
       </c>
       <c r="V13" t="n">
-        <v>0.169460309475631</v>
+        <v>0.04849316690391139</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1758500273945801</v>
+        <v>0.0159754348929409</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1217305747141959</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>0.03228274957640141</v>
-      </c>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="n">
-        <v>0.2504356631797331</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>-0.005934889701406102</v>
+        <v>0.02139119227017838</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>gender_woe</t>
+          <t>region_of_registration_woe</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03075360884758935</v>
+        <v>0.08067876178316775</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01004362459454277</v>
+        <v>0.1674606704203833</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06266051894176151</v>
+        <v>0.05867898218570094</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.004628036202073487</v>
+        <v>0.1188394203581676</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03533195631815394</v>
+        <v>0.1758506131991023</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04113896654495863</v>
+        <v>0.1137777410617338</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01730670988210769</v>
+        <v>0.01645538664679273</v>
       </c>
       <c r="I14" t="n">
-        <v>0.04783648095510312</v>
+        <v>0.03524609957204317</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.005690541665928445</v>
+        <v>0.1408975751771124</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08317080825833249</v>
+        <v>0.1282985321663271</v>
       </c>
       <c r="L14" t="n">
-        <v>0.06887832403208659</v>
+        <v>0.1713095803107567</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002885562811710425</v>
+        <v>-0.05890332855379068</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.05163563132732542</v>
+        <v>-0.01933802456372041</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.05113763029179726</v>
+        <v>0.08738950564669408</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.1508441670023806</v>
+        <v>0.0420809968356833</v>
       </c>
       <c r="R14" t="n">
-        <v>0.2440057229130093</v>
+        <v>0.5353998331808283</v>
       </c>
       <c r="S14" t="n">
-        <v>0.150545972720818</v>
+        <v>0.1929210688942837</v>
       </c>
       <c r="T14" t="n">
-        <v>-0.001088386559320651</v>
+        <v>0.06384629246687991</v>
       </c>
       <c r="U14" t="n">
-        <v>-0.01709281471121937</v>
+        <v>-0.005938670884237135</v>
       </c>
       <c r="V14" t="n">
-        <v>0.04214115634769192</v>
+        <v>0.05899049608539296</v>
       </c>
       <c r="W14" t="n">
-        <v>-0.02549358927066013</v>
+        <v>0.04705093014598999</v>
       </c>
       <c r="X14" t="n">
-        <v>0.132898035276986</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.0004937625130443223</v>
-      </c>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="n">
-        <v>0.03859640435470713</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.008523353575426214</v>
+        <v>0.0214926762478426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>additional_income_woe</t>
+          <t>eskhata_online_woe</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01233998927218793</v>
+        <v>-0.02896168514189792</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.01651105649062412</v>
+        <v>0.2546785057618983</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.009433689797005399</v>
+        <v>-0.06727283863321831</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01938605431589129</v>
+        <v>-0.01383249820329345</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0112791072876017</v>
+        <v>-0.03547746629097435</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04514357965529114</v>
+        <v>0.270839131118772</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.01872649873167397</v>
+        <v>0.02180548169645317</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01889613915067067</v>
+        <v>0.138024471345026</v>
       </c>
       <c r="J15" t="n">
-        <v>0.005978134534728906</v>
+        <v>-0.08073769466252909</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.003589140757204777</v>
+        <v>0.2646783016663864</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.01990938120179429</v>
+        <v>0.03834360555208705</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0340732164731057</v>
+        <v>0.06599882388305793</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.05163563132732542</v>
+        <v>-0.01933802456372041</v>
       </c>
       <c r="O15" t="n">
         <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>0.03294815067895379</v>
+        <v>0.005731959755376509</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.04014107416346593</v>
+        <v>-0.05122281145695339</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.04919528120572373</v>
+        <v>-0.05614465731162953</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.05072008736460325</v>
+        <v>-0.05962344885440461</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0223681941462581</v>
+        <v>-0.04342198676882504</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.004314547217185541</v>
+        <v>0.003940758666431313</v>
       </c>
       <c r="V15" t="n">
-        <v>0.02099138614325744</v>
+        <v>0.4237069915223064</v>
       </c>
       <c r="W15" t="n">
-        <v>0.03031864227197087</v>
+        <v>0.2460849727418266</v>
       </c>
       <c r="X15" t="n">
-        <v>-0.008939159077979123</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.00228031998550889</v>
-      </c>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="n">
-        <v>0.01876111017145897</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>-0.001217076541701913</v>
+        <v>-0.001409699558136195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eskhata_online_woe</t>
+          <t>dependants_woe</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.03098240734028416</v>
+        <v>0.05869780539262414</v>
       </c>
       <c r="C16" t="n">
-        <v>0.002107369090701727</v>
+        <v>0.09042783829346404</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.02880450779858777</v>
+        <v>0.08501285672573078</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2459407308043128</v>
+        <v>0.01208113072356448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02876876233265852</v>
+        <v>0.1091877215701093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2647331142663276</v>
+        <v>0.0712043320739348</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.006330130570039983</v>
+        <v>-0.002894690190423062</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.05621029105258896</v>
+        <v>0.04015872530045726</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1379311210763631</v>
+        <v>0.006724220746150244</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.08066787848580988</v>
+        <v>0.0654938111534048</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.06726718196534434</v>
+        <v>0.1095195880805692</v>
       </c>
       <c r="M16" t="n">
-        <v>0.253457311733698</v>
+        <v>0.03297292493975074</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.05113763029179726</v>
+        <v>0.08738950564669408</v>
       </c>
       <c r="O16" t="n">
-        <v>0.03294815067895379</v>
+        <v>0.005731959755376509</v>
       </c>
       <c r="P16" t="n">
         <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00569819270769629</v>
+        <v>-0.1508591327949424</v>
       </c>
       <c r="R16" t="n">
-        <v>-0.01232546287739841</v>
+        <v>0.1478692254644113</v>
       </c>
       <c r="S16" t="n">
-        <v>-0.05349070319120404</v>
+        <v>0.08509492972880528</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2707831162911803</v>
+        <v>-0.005224111795512278</v>
       </c>
       <c r="U16" t="n">
-        <v>-0.06092491905105218</v>
+        <v>-0.002466575018422549</v>
       </c>
       <c r="V16" t="n">
-        <v>-0.01941790377070206</v>
+        <v>0.01695325507569185</v>
       </c>
       <c r="W16" t="n">
-        <v>0.4236291102996286</v>
+        <v>0.005750921653407185</v>
       </c>
       <c r="X16" t="n">
-        <v>-0.0344702376478622</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0.007561188502207997</v>
-      </c>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>0.03823596503805856</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>-0.108615397734908</v>
+        <v>0.01382196096287252</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>dependants_woe</t>
+          <t>gender_woe</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.03021730051459642</v>
+        <v>0.06434194483038047</v>
       </c>
       <c r="C17" t="n">
-        <v>0.002786778513992534</v>
+        <v>0.002354491357786798</v>
       </c>
       <c r="D17" t="n">
-        <v>0.05751946839423675</v>
+        <v>0.06888048812324261</v>
       </c>
       <c r="E17" t="n">
-        <v>0.005697929770710371</v>
+        <v>0.2362841731169237</v>
       </c>
       <c r="F17" t="n">
-        <v>0.01225361413342481</v>
+        <v>0.3257750763507299</v>
       </c>
       <c r="G17" t="n">
-        <v>0.06550257194866173</v>
+        <v>-0.00114864190461374</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0005859681371646212</v>
+        <v>0.009522569914458092</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1478496355213665</v>
+        <v>-0.005730211452916504</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04014540372327682</v>
+        <v>0.08322213074493209</v>
       </c>
       <c r="K17" t="n">
-        <v>0.006738817225918428</v>
+        <v>-0.04110867458509793</v>
       </c>
       <c r="L17" t="n">
-        <v>0.08498160304887192</v>
+        <v>0.03850426428154445</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09106456319297318</v>
+        <v>-0.05428584488569616</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.1508441670023806</v>
+        <v>0.0420809968356833</v>
       </c>
       <c r="O17" t="n">
-        <v>0.04014107416346593</v>
+        <v>-0.05122281145695339</v>
       </c>
       <c r="P17" t="n">
-        <v>0.00569819270769629</v>
+        <v>-0.1508591327949424</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00677243084473756</v>
+        <v>0.04778729767333058</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.00976794619278863</v>
+        <v>-0.01779068645254877</v>
       </c>
       <c r="T17" t="n">
-        <v>0.07118005491058108</v>
+        <v>0.1486340040497141</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0887990080194494</v>
+        <v>0.04139600305519509</v>
       </c>
       <c r="V17" t="n">
-        <v>0.08737194859622717</v>
+        <v>-0.02559440897047613</v>
       </c>
       <c r="W17" t="n">
-        <v>0.01691797170637508</v>
+        <v>-0.004779970558562102</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1430285319464044</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0.01323267220978079</v>
-      </c>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="n">
-        <v>0.1094821747183186</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0.009499457204839449</v>
+        <v>-0.002766070675284248</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>employment_segment_woe</t>
+          <t>city_of_living_eq_registration_woe</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.07368507566888031</v>
+        <v>0.07545319291088061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0467196319642779</v>
+        <v>0.09928614873200578</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2688413969377148</v>
+        <v>0.04323947840245021</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0143433756994679</v>
+        <v>0.1272566569486929</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2456601705627196</v>
+        <v>0.1446715749725218</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07115160849667662</v>
+        <v>0.05490217142022678</v>
       </c>
       <c r="H18" t="n">
-        <v>0.06765279684923907</v>
+        <v>0.007769350351439662</v>
       </c>
       <c r="I18" t="n">
-        <v>0.113203750140209</v>
+        <v>0.006648461001077949</v>
       </c>
       <c r="J18" t="n">
-        <v>0.08698281088189916</v>
+        <v>0.1617455828635024</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02282222343286654</v>
+        <v>0.08401212330948329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.129234981978036</v>
+        <v>0.1444061207913455</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1354501359811287</v>
+        <v>-0.074409628326729</v>
       </c>
       <c r="N18" t="n">
-        <v>0.2440057229130093</v>
+        <v>0.5353998331808283</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.04919528120572373</v>
+        <v>-0.05614465731162953</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01232546287739841</v>
+        <v>0.1478692254644113</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00677243084473756</v>
+        <v>0.04778729767333058</v>
       </c>
       <c r="R18" t="n">
         <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>0.1868987848051624</v>
+        <v>0.238090910562835</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1322212114867571</v>
+        <v>0.06177813176789097</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1373199290350062</v>
+        <v>-0.01556110683271505</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1118183918549317</v>
+        <v>0.0249562521737976</v>
       </c>
       <c r="W18" t="n">
-        <v>0.00964079376072155</v>
+        <v>0.01909991039490992</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1444859926276788</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.0297189700949829</v>
-      </c>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="n">
-        <v>0.1135779712183314</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0.01279473182206052</v>
+        <v>0.003445611280206765</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>net_main_income_woe</t>
+          <t>property_object_woe</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.02845169687237388</v>
+        <v>0.0974148236452077</v>
       </c>
       <c r="C19" t="n">
-        <v>0.01499515621677161</v>
+        <v>0.03263192031875568</v>
       </c>
       <c r="D19" t="n">
-        <v>0.04750936225234557</v>
+        <v>0.05579441621068818</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.02239929493876311</v>
+        <v>0.1397048351020813</v>
       </c>
       <c r="F19" t="n">
-        <v>0.006089710098130476</v>
+        <v>0.09368975680543214</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02024005480257876</v>
+        <v>0.02863775189769611</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04470075916090735</v>
+        <v>0.01338331483871978</v>
       </c>
       <c r="I19" t="n">
-        <v>0.05911938009842863</v>
+        <v>-0.003581731995348674</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.01283588876884923</v>
+        <v>0.05780127441389867</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06354991129387645</v>
+        <v>0.01093133339377495</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05301223095133712</v>
+        <v>0.115051123436634</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0004676416974161886</v>
+        <v>-0.01793328067907718</v>
       </c>
       <c r="N19" t="n">
-        <v>0.150545972720818</v>
+        <v>0.1929210688942837</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.05072008736460325</v>
+        <v>-0.05962344885440461</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.05349070319120404</v>
+        <v>0.08509492972880528</v>
       </c>
       <c r="Q19" t="n">
-        <v>-0.00976794619278863</v>
+        <v>-0.01779068645254877</v>
       </c>
       <c r="R19" t="n">
-        <v>0.1868987848051624</v>
+        <v>0.238090910562835</v>
       </c>
       <c r="S19" t="n">
         <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0.006621509872644927</v>
+        <v>0.06643797603351537</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06614072555803693</v>
+        <v>0.003107208507168612</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0602367578306273</v>
+        <v>-0.01407879773575752</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.03131307390944575</v>
+        <v>-0.001183652346161328</v>
       </c>
       <c r="X19" t="n">
-        <v>0.04684596334943365</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.04073424679422006</v>
-      </c>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="n">
-        <v>0.04444327690078956</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>0.01908796526239463</v>
+        <v>0.01253461045151721</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>client_type_woe</t>
+          <t>net_main_income_woe</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0638301905747298</v>
+        <v>0.04988737422524905</v>
       </c>
       <c r="C20" t="n">
-        <v>0.08227910237674531</v>
+        <v>0.004138058264365016</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2117678904861297</v>
+        <v>0.05306853748574193</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3939511860270611</v>
+        <v>0.1833564197677696</v>
       </c>
       <c r="F20" t="n">
-        <v>0.06145362847005587</v>
+        <v>0.07005368285586543</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1325910236158928</v>
+        <v>0.006134577832614261</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001997271759683673</v>
+        <v>-0.008151299155224168</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05486331873484666</v>
+        <v>-0.01618886545159365</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3912445501752563</v>
+        <v>0.05997464280823232</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.08649082002591205</v>
+        <v>0.001603165846340073</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1982247905355151</v>
+        <v>0.04375234478988829</v>
       </c>
       <c r="M20" t="n">
-        <v>0.5174399799087578</v>
+        <v>-0.002194572036746614</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.001088386559320651</v>
+        <v>0.06384629246687991</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0223681941462581</v>
+        <v>-0.04342198676882504</v>
       </c>
       <c r="P20" t="n">
-        <v>0.2707831162911803</v>
+        <v>-0.005224111795512278</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.07118005491058108</v>
+        <v>0.1486340040497141</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1322212114867571</v>
+        <v>0.06177813176789097</v>
       </c>
       <c r="S20" t="n">
-        <v>0.006621509872644927</v>
+        <v>0.06643797603351537</v>
       </c>
       <c r="T20" t="n">
         <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03134049804681147</v>
+        <v>0.03547391944951605</v>
       </c>
       <c r="V20" t="n">
-        <v>0.1137321059949434</v>
+        <v>-0.0191380112331987</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1787304216374876</v>
+        <v>-0.01685755527429487</v>
       </c>
       <c r="X20" t="n">
-        <v>0.08062613795387966</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.02769849101440272</v>
-      </c>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="n">
-        <v>0.2716539703328323</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-0.1874653562780045</v>
+        <v>0.05829063761063003</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>property_object_woe</t>
+          <t>source_of_main_income_woe</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02567389987213146</v>
+        <v>0.02988470132492452</v>
       </c>
       <c r="C21" t="n">
-        <v>0.02939651969492608</v>
+        <v>0.009233685348056337</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09798517701182741</v>
+        <v>0.01720984787354333</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.001864251649357563</v>
+        <v>0.07866078660484259</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.03215679569478287</v>
+        <v>0.02407914831677646</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0102575974494711</v>
+        <v>0.004299617749404632</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01237453889972808</v>
+        <v>0.01209964328355993</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2418554661313762</v>
+        <v>0.005222807838315497</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.002938868599359162</v>
+        <v>0.003284870355528387</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0570158760728731</v>
+        <v>0.03118392735617154</v>
       </c>
       <c r="L21" t="n">
-        <v>0.05740582105260188</v>
+        <v>0.0009406837670067736</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0345962746319728</v>
+        <v>0.04688601214404813</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.01709281471121937</v>
+        <v>-0.005938670884237135</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.004314547217185541</v>
+        <v>0.003940758666431313</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.06092491905105218</v>
+        <v>-0.002466575018422549</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.0887990080194494</v>
+        <v>0.04139600305519509</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1373199290350062</v>
+        <v>-0.01556110683271505</v>
       </c>
       <c r="S21" t="n">
-        <v>0.06614072555803693</v>
+        <v>0.003107208507168612</v>
       </c>
       <c r="T21" t="n">
-        <v>0.03134049804681147</v>
+        <v>0.03547391944951605</v>
       </c>
       <c r="U21" t="n">
         <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>0.2019512404644594</v>
+        <v>0.01623932786113821</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.01237986234018594</v>
+        <v>-0.005067833250734645</v>
       </c>
       <c r="X21" t="n">
-        <v>0.1030542676522685</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0.006535686737871275</v>
-      </c>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="n">
-        <v>0.1209704362396846</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.007442614504622692</v>
+        <v>-5.690223775229973e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>region_of_registration_woe</t>
+          <t>plastic_cards_woe</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.0422357697665559</v>
+        <v>-0.02882962463373014</v>
       </c>
       <c r="C22" t="n">
-        <v>0.03312771575938338</v>
+        <v>0.1749658206164342</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08515942255459191</v>
+        <v>-0.05460501711014021</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04693099271125591</v>
+        <v>0.01162957455033877</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1050436245989451</v>
+        <v>-0.00383734265520128</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1283256493331783</v>
+        <v>0.1788029431403374</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.02943262929110217</v>
+        <v>0.02582192897516669</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5354089093788313</v>
+        <v>0.1042140048489635</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03523161947283278</v>
+        <v>-0.05314694805376186</v>
       </c>
       <c r="K22" t="n">
-        <v>0.1409725573246835</v>
+        <v>0.4098305033775229</v>
       </c>
       <c r="L22" t="n">
-        <v>0.05869599682002259</v>
+        <v>0.04060410910715576</v>
       </c>
       <c r="M22" t="n">
-        <v>0.169460309475631</v>
+        <v>0.04849316690391139</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04214115634769192</v>
+        <v>0.05899049608539296</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02099138614325744</v>
+        <v>0.4237069915223064</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.01941790377070206</v>
+        <v>0.01695325507569185</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.08737194859622717</v>
+        <v>-0.02559440897047613</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1118183918549317</v>
+        <v>0.0249562521737976</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0602367578306273</v>
+        <v>-0.01407879773575752</v>
       </c>
       <c r="T22" t="n">
-        <v>0.1137321059949434</v>
+        <v>-0.0191380112331987</v>
       </c>
       <c r="U22" t="n">
-        <v>0.2019512404644594</v>
+        <v>0.01623932786113821</v>
       </c>
       <c r="V22" t="n">
         <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0.05890924014371746</v>
+        <v>0.1898869940651389</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1691153882611887</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0.02215154826796313</v>
-      </c>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="n">
-        <v>0.1712586664585332</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>-0.02129672618080093</v>
+        <v>0.01013759286341674</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>plastic_cards_woe</t>
+          <t>previous_loans_count_woe</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.02141177634535238</v>
+        <v>0.01253442861688374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.01031646921739273</v>
+        <v>0.07518182742309246</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02964185962065269</v>
+        <v>0.001966391548841579</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1897028615112557</v>
+        <v>0.01382196600026271</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001745125863177045</v>
+        <v>0.008379503858700879</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4099084603445771</v>
+        <v>0.394008124233808</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01187067530982624</v>
+        <v>0.09984566550247491</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02488780383030137</v>
+        <v>0.1676661471307086</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1041270745938564</v>
+        <v>-0.01179448831927833</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.05305478398613655</v>
+        <v>0.1158097098655609</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.05459270264445927</v>
+        <v>0.05974773747603969</v>
       </c>
       <c r="M23" t="n">
-        <v>0.1758500273945801</v>
+        <v>0.0159754348929409</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.02549358927066013</v>
+        <v>0.04705093014598999</v>
       </c>
       <c r="O23" t="n">
-        <v>0.03031864227197087</v>
+        <v>0.2460849727418266</v>
       </c>
       <c r="P23" t="n">
-        <v>0.4236291102996286</v>
+        <v>0.005750921653407185</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01691797170637508</v>
+        <v>-0.004779970558562102</v>
       </c>
       <c r="R23" t="n">
-        <v>0.00964079376072155</v>
+        <v>0.01909991039490992</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.03131307390944575</v>
+        <v>-0.001183652346161328</v>
       </c>
       <c r="T23" t="n">
-        <v>0.1787304216374876</v>
+        <v>-0.01685755527429487</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.01237986234018594</v>
+        <v>-0.005067833250734645</v>
       </c>
       <c r="V23" t="n">
-        <v>0.05890924014371746</v>
+        <v>0.1898869940651389</v>
       </c>
       <c r="W23" t="n">
         <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>-0.00558692390037979</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0.01322088534361802</v>
-      </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="n">
-        <v>0.04047873619408185</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>-0.08375476483338495</v>
+        <v>0.007281048976728986</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>marital_status_woe</t>
+          <t>reported_expenses_woe</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.06543798290569863</v>
+        <v>0.02524862878182814</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0407425508535815</v>
+        <v>0.02756165220351701</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2267082469781341</v>
+        <v>0.02282500226847466</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002449733388135817</v>
+        <v>0.03082008803714354</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04423935206838196</v>
+        <v>0.01539414213407016</v>
       </c>
       <c r="G24" t="n">
-        <v>0.04761178940549133</v>
+        <v>0.01701201571612366</v>
       </c>
       <c r="H24" t="n">
-        <v>0.01157368674026274</v>
+        <v>-0.0148227810784026</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1382609088725751</v>
+        <v>0.01512626141781773</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06383906902289728</v>
+        <v>-0.01937541373070231</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.01089557362882587</v>
+        <v>0.01116117892909676</v>
       </c>
       <c r="L24" t="n">
-        <v>0.3355526772742019</v>
+        <v>0.009761780997373366</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1217305747141959</v>
+        <v>0.02139119227017838</v>
       </c>
       <c r="N24" t="n">
-        <v>0.132898035276986</v>
+        <v>0.0214926762478426</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.008939159077979123</v>
+        <v>-0.001409699558136195</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.0344702376478622</v>
+        <v>0.01382196096287252</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1430285319464044</v>
+        <v>-0.002766070675284248</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1444859926276788</v>
+        <v>0.003445611280206765</v>
       </c>
       <c r="S24" t="n">
-        <v>0.04684596334943365</v>
+        <v>0.01253461045151721</v>
       </c>
       <c r="T24" t="n">
-        <v>0.08062613795387966</v>
+        <v>0.05829063761063003</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1030542676522685</v>
+        <v>-5.690223775229973e-06</v>
       </c>
       <c r="V24" t="n">
-        <v>0.1691153882611887</v>
+        <v>0.01013759286341674</v>
       </c>
       <c r="W24" t="n">
-        <v>-0.00558692390037979</v>
+        <v>0.007281048976728986</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>0.007215458608284978</v>
-      </c>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="n">
-        <v>0.1223846233757419</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>0.02557076034436158</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>reported_expenses_woe</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.02063710294158352</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0001133452187756794</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.02067739402200331</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.02206802672643453</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.02315650911658775</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.02131317821719172</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.01411010774517813</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.004704081406297921</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.02776364056234969</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-0.0123704165355317</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.02232838321414371</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.03228274957640141</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.0004937625130443223</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.00228031998550889</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0.007561188502207997</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0.01323267220978079</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0.0297189700949829</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0.04073424679422006</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0.02769849101440272</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0.006535686737871275</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0.02215154826796313</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.01322088534361802</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0.007215458608284978</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="n">
-        <v>0.01356686714117585</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>-0.02116552510299268</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>deposit_woe</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>months_at_current_address_woe</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.04494916122188742</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.03294618978688882</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.1954633997697022</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.05956748100742761</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0.006176639017541308</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0.05257500678206572</v>
-      </c>
-      <c r="H27" t="n">
-        <v>-0.001540296661021496</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.1443607997640468</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.1520033141077183</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.008084365466713393</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.2050132724529852</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.2504356631797331</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0.03859640435470713</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0.01876111017145897</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0.03823596503805856</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0.1094821747183186</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0.1135779712183314</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0.04444327690078956</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0.2716539703328323</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0.1209704362396846</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0.1712586664585332</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.04047873619408185</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0.1223846233757419</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0.01356686714117585</v>
-      </c>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>-0.01489342676104153</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>max_max_days_past_due_woe</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.02419700518822549</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.01457235543110716</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.01635989890640272</v>
-      </c>
-      <c r="E28" t="n">
-        <v>-0.4764488981504412</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.01307397757971307</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-0.01825286282574718</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.01851553092770452</v>
-      </c>
-      <c r="I28" t="n">
-        <v>-0.01455168578972382</v>
-      </c>
-      <c r="J28" t="n">
-        <v>-0.07772741889000223</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-0.02102502845531048</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.0208023646533256</v>
-      </c>
-      <c r="M28" t="n">
-        <v>-0.005934889701406102</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.008523353575426214</v>
-      </c>
-      <c r="O28" t="n">
-        <v>-0.001217076541701913</v>
-      </c>
-      <c r="P28" t="n">
-        <v>-0.108615397734908</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0.009499457204839449</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0.01279473182206052</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0.01908796526239463</v>
-      </c>
-      <c r="T28" t="n">
-        <v>-0.1874653562780045</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0.007442614504622692</v>
-      </c>
-      <c r="V28" t="n">
-        <v>-0.02129672618080093</v>
-      </c>
-      <c r="W28" t="n">
-        <v>-0.08375476483338495</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.02557076034436158</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-0.02116552510299268</v>
-      </c>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="n">
-        <v>-0.01489342676104153</v>
-      </c>
-      <c r="AB28" t="n">
         <v>1</v>
       </c>
     </row>
